--- a/doc/log/log_201608040117_shijin.xlsx
+++ b/doc/log/log_201608040117_shijin.xlsx
@@ -1,102 +1,433 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7714C6-FEF6-4E73-85B3-89DA5372836E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14328" windowHeight="8376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:30</t>
   </si>
   <si>
     <t>1.领域实体改造 @table, @entity；
 2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>学习spring core ioc 和di</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>没有实现，明天实现</t>
+  </si>
+  <si>
+    <t>15:-17:00</t>
+  </si>
+  <si>
+    <t>实现昨天内容和向数据库里插入数据</t>
+  </si>
+  <si>
+    <t>JPA配置不懂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -115,17 +688,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,7 +826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -383,112 +1000,136 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="24.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60.75" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>43216</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" customWidth="1"/>
-    <col min="5" max="5" width="54.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.2166666666667" customWidth="1"/>
+    <col min="3" max="3" width="47.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="52.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="54.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="21.6" customHeight="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="35.4" customHeight="1" spans="1:5">
+      <c r="A2" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040117_shijin.xlsx
+++ b/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>日期</t>
   </si>
@@ -54,13 +54,94 @@
     <t>没有实现，明天实现</t>
   </si>
   <si>
-    <t>15:-17:00</t>
+    <t>15:00-17:00</t>
   </si>
   <si>
     <t>实现昨天内容和向数据库里插入数据</t>
   </si>
   <si>
     <t>JPA配置不懂</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>学习springdata和hibernate</t>
+  </si>
+  <si>
+    <t>项目还有点问题</t>
+  </si>
+  <si>
+    <t>找出并解决问题</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>解决昨天的问题</t>
+  </si>
+  <si>
+    <t>学习jpa 和serizable</t>
+  </si>
+  <si>
+    <t>学习hibernate的几种配置</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Repositary </t>
+  </si>
+  <si>
+    <t>学习Repositary</t>
+  </si>
+  <si>
+    <t>配置studentservice项目框架并提交</t>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+  </si>
+  <si>
+    <t>配置studentservice的框架</t>
+  </si>
+  <si>
+    <t>tortoisegit不熟练，多看点资料</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>把课程表插入数据库并用@Query实现对课程表增删改查</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>查询时出现栈溢出</t>
+  </si>
+  <si>
+    <t>实现查找</t>
+  </si>
+  <si>
+    <t>复习JPA 及Repositary及其子接口</t>
+  </si>
+  <si>
+    <t>学习springMVC</t>
+  </si>
+  <si>
+    <t>完成一点</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>创建实体类插入json文件</t>
+  </si>
+  <si>
+    <t>hibernate级联出现问题，已经解决</t>
   </si>
 </sst>
 </file>
@@ -68,12 +149,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,24 +163,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,106 +211,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,61 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,121 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,30 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +530,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,159 +593,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,13 +1133,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="12.2166666666667" customWidth="1"/>
@@ -1125,8 +1199,175 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040117_shijin.xlsx
+++ b/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>hibernate级联出现问题，已经解决</t>
+  </si>
+  <si>
+    <t>创建region和relation两个类及其dao和service 完成插入数据测试</t>
+  </si>
+  <si>
+    <t>文件太大，插入过慢，用多线程尝试解决</t>
   </si>
 </sst>
 </file>
@@ -149,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,6 +166,126 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,26 +297,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,111 +312,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,13 +322,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,169 +424,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,11 +516,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +570,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,38 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1139,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1369,6 +1375,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040117_shijin.xlsx
+++ b/doc/log/log_201608040117_shijin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
+    <workbookView windowWidth="20370" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>文件太大，插入过慢，用多线程尝试解决</t>
+  </si>
+  <si>
+    <t>实现批量化添加到数据库</t>
+  </si>
+  <si>
+    <t>完成，但是速度还是很慢</t>
+  </si>
+  <si>
+    <t>尝试多线程</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>实现多线程添加数据库</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>看spring里的多线程支持和batch</t>
   </si>
 </sst>
 </file>
@@ -155,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -170,22 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +206,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,67 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +273,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -322,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,17 +537,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,7 +565,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +585,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,22 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,10 +1160,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1392,6 +1413,40 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040117_shijin.xlsx
+++ b/doc/log/log_201608040117_shijin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8970" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日期</t>
   </si>
@@ -169,6 +169,45 @@
   </si>
   <si>
     <t>看spring里的多线程支持和batch</t>
+  </si>
+  <si>
+    <t>实现了spring batch csv格式的demo</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>学习处理json文件</t>
+  </si>
+  <si>
+    <t>学习spring处理json</t>
+  </si>
+  <si>
+    <t>学习springmvc</t>
+  </si>
+  <si>
+    <t>学习MVC处理机制</t>
+  </si>
+  <si>
+    <t>写个小webdemo</t>
+  </si>
+  <si>
+    <t>写一个webdemo</t>
+  </si>
+  <si>
+    <t>继续学习springmvc</t>
+  </si>
+  <si>
+    <t>解决webdemo出现乱码问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配置 basecontroller和coursecontroller</t>
+  </si>
+  <si>
+    <t>完成，但是@Autowired出现问题</t>
+  </si>
+  <si>
+    <t>解决注入问题</t>
   </si>
 </sst>
 </file>
@@ -176,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -191,7 +230,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +320,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -243,92 +335,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,19 +382,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,163 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,9 +578,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +616,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,41 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,145 +679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,10 +1199,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1447,6 +1486,108 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
